--- a/src/assets/samples/ImportTicketCancellationTemplate.xlsx
+++ b/src/assets/samples/ImportTicketCancellationTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Afaqy\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasem\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E131DA2-0168-43D7-8C0E-8F06B5EF972B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1B47A5F-EAB4-41ED-90F2-D67F22B3C691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F8CF2A45-B278-473C-AD22-2B1052D31D43}"/>
+    <workbookView xWindow="3120" yWindow="720" windowWidth="21975" windowHeight="20880" xr2:uid="{F8CF2A45-B278-473C-AD22-2B1052D31D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -392,15 +392,15 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="9.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>

--- a/src/assets/samples/ImportTicketCancellationTemplate.xlsx
+++ b/src/assets/samples/ImportTicketCancellationTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasem\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\New folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1B47A5F-EAB4-41ED-90F2-D67F22B3C691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DDF5FD-C94D-47A6-BADD-5A3D892AB91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="720" windowWidth="21975" windowHeight="20880" xr2:uid="{F8CF2A45-B278-473C-AD22-2B1052D31D43}"/>
+    <workbookView xWindow="5070" yWindow="720" windowWidth="21975" windowHeight="20880" xr2:uid="{F8CF2A45-B278-473C-AD22-2B1052D31D43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>TerminalId</t>
+    <t>Terminal</t>
   </si>
   <si>
-    <t>ErrandTypeId</t>
+    <t>ErrandType</t>
   </si>
   <si>
-    <t>AssigneeId</t>
+    <t>Assignee</t>
   </si>
 </sst>
 </file>
@@ -388,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0BE0C2A-D9F3-4CDC-A2FB-2EA44E3111B1}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
